--- a/MapGenerator生成リスト.xlsx
+++ b/MapGenerator生成リスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>MapGenerator生成リスト</t>
     <rPh sb="12" eb="14">
@@ -1058,6 +1058,76 @@
     </rPh>
     <rPh sb="59" eb="61">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー系統</t>
+    <rPh sb="5" eb="7">
+      <t>ケイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start_Pos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの初期位置(中心)を決定する、設定時は、上1マス、左右各2マスずつ空きを作る事</t>
+    <rPh sb="6" eb="8">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上に1マス、左右2マスずつに0を入れないと、床にはまる可能性がある</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カノウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1389,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1426,102 +1496,93 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1529,27 +1590,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1557,41 +1618,41 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -1599,113 +1660,107 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>25</v>
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
+      <c r="A19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>31</v>
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -1716,13 +1771,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -1733,13 +1788,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -1750,13 +1805,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
@@ -1767,13 +1822,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -1784,13 +1839,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -1801,96 +1856,130 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>66</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>67</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>68</v>
       </c>
     </row>

--- a/MapGenerator生成リスト.xlsx
+++ b/MapGenerator生成リスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>MapGenerator生成リスト</t>
     <rPh sb="12" eb="14">
@@ -91,20 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※1マスあたりのサイズ(96,96)で、このマスを基準にFloorが生成される</t>
-    <rPh sb="25" eb="27">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイズ(xマス,yマス)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,54 +116,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NavChip(使用禁止)</t>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TranslessTurnFloor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生成したマスを中心に、その場で回転を行う、最初は横向きで、時計周りに回転</t>
-    <rPh sb="0" eb="2">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トケイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイテン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -319,15 +258,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2 , 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0 , 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2 , 1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -407,62 +338,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FloorTurnEnemy(未作成)</t>
-    <rPh sb="15" eb="18">
-      <t>ミサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WallTurnEnemy</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>FlyingEnemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WallMoveEnemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トゲ上向き</t>
-    <rPh sb="2" eb="3">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トゲ下向き</t>
-    <rPh sb="2" eb="3">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トゲ右向き</t>
-    <rPh sb="2" eb="3">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トゲ左向き</t>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ム</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -560,166 +440,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FlyingEnemy(未作成)</t>
-    <rPh sb="12" eb="15">
-      <t>ミサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WallMoveEnemy(未作成)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WallTurnEnemy(未作成)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壁つたいに動く、初期状態で時計周りで、最初に設置している床から見て時計周りに動く</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>トケイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壁つたいに動く、初期状態で反時計周りで、最初に設置している床から見て反時計周りに動く</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トケイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>トケイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1 , 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上向きのトゲを配置する</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下向きのトゲを配置する</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右向きのトゲを配置する</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左向きのトゲを配置する</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -733,55 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100～109</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>110～119</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SegmentFloor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定した2点から、線分の床を生成する、線分はその場で留まり、サイズは自由に指定が可能</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センブン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>センブン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不定</t>
     <rPh sb="0" eb="2">
       <t>フテイ</t>
@@ -808,189 +480,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>右左右左･･･の順番で動く床の生成,動作範囲は、基準点から右に3マス分</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ザ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>キジュンテン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下上下上･･･の順番で動く床の生成,動作範囲は、基準点から下に3マス分</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>キジュンテン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BossAreaFloor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下上下上･･･の順番で動く床の生成,動作範囲は、基準点を中心に上下3マス分ずつ</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>キジュンテン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右左右左･･･の順番で動く床の生成,動作範囲は、基準点を中心に左右3マス分ずつ</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ザ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>キジュンテン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生成したマスを右端に、半径2マスで時計周りに回転を行う、最初は左向き</t>
-    <rPh sb="0" eb="2">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ウタン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンケイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トケイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ム</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1010,58 +500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指定した2点から、始点、終点をそれぞれ右に1マス分寄せた線分の床を生成する、線分はその場で留まり、サイズは自由に指定が可能</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウテン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センブン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>センブン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トド</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー系統</t>
     <rPh sb="5" eb="7">
       <t>ケイトウ</t>
@@ -1129,6 +567,525 @@
     <rPh sb="27" eb="30">
       <t>カノウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(使用禁止)</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SegmentCollider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 , 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100~129</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上下上下･･･の順番で動く床の生成,動作範囲は、基準点から上に3マス分</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キジュンテン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右左右･･･の順番で動く床の生成,動作範囲は、基準点から左に3マス分</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キジュンテン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成したマスを右端に、半径2マスで時計周りに回転を行う、最初は270度</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウタン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1マスあたりのサイズ(96,96)で、このマスを基準にFloorが生成される,各Floorのpositionの中心点は左上、角度表記がある場合は、上向きを0度として、時計回りで加算していく</t>
+    <rPh sb="25" eb="27">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>チュウシンテン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>トケイマワ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上下上下･･･の順番で動く床の生成,動作範囲は、基準点から上に6マス分</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キジュンテン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右左右･･･の順番で動く床の生成,動作範囲は、基準点から左に6マス分</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キジュンテン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定した2点から、始点は点の、終点線分の床を生成する、線分はその場で留まり、サイズは自由に指定が可能、始点はマスの左上、終点はマスの右上</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュウテン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0度のトゲを配置する</t>
+    <rPh sb="1" eb="2">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>180度のトゲを配置する</t>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90度のトゲを配置する</t>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>270度のトゲを配置する</t>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[生成したマスの中央]を中心に、その場で回転を行う、最初は０度で、時計周りに回転</t>
+    <rPh sb="1" eb="3">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FloorTurnEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlyingEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁つたいに動く、初期状態で時計周りで、最初は左向きに進む</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁つたいに動く、初期状態で反時計周りで、最初は左向きに進む</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WallMoveEnemy(動作ルールがわからない)</t>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゲ上向き(静止しない、向きの指定が出来ない)</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WallTurnEnemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゲ下向き(静止しない、向きの指定が出来ない)</t>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゲ右向き(静止しない、向きの指定が出来ない)</t>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゲ左向き(静止しない、向きの指定が出来ない)</t>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WallMoveEnemy(動作ルールがわからない)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1461,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1470,6 +1427,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="96.75" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -1477,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1488,15 +1446,15 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1504,18 +1462,18 @@
         <v>999</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1529,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1543,7 +1501,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1554,10 +1512,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1568,10 +1526,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1582,10 +1540,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1596,10 +1554,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1607,13 +1565,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1621,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1635,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1649,13 +1607,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1663,13 +1621,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1677,13 +1635,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1691,18 +1649,18 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1713,10 +1671,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1727,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1738,18 +1696,18 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1757,16 +1715,16 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1774,16 +1732,16 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1791,16 +1749,16 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1808,16 +1766,16 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1825,16 +1783,16 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1842,16 +1800,16 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1859,16 +1817,16 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1876,16 +1834,16 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1893,13 +1851,13 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1907,13 +1865,13 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1921,13 +1879,13 @@
         <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1935,54 +1893,38 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-    </row>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
